--- a/examples/catalogue_30s_1/generated_output/ALA1934_RR-excerpt.pdf.xlsx
+++ b/examples/catalogue_30s_1/generated_output/ALA1934_RR-excerpt.pdf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="818">
   <si>
     <t>col01</t>
   </si>
@@ -604,6 +604,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>432 282</t>
+  </si>
+  <si>
+    <t>2592</t>
+  </si>
+  <si>
     <t>4 000</t>
   </si>
   <si>
@@ -616,28 +622,13 @@
     <t>2</t>
   </si>
   <si>
-    <t>6 3</t>
-  </si>
-  <si>
-    <t>P G</t>
-  </si>
-  <si>
-    <t>90 90</t>
-  </si>
-  <si>
-    <t>12 10</t>
-  </si>
-  <si>
-    <t>A A</t>
-  </si>
-  <si>
-    <t>432 282 445 279</t>
-  </si>
-  <si>
-    <t>2592 2670</t>
-  </si>
-  <si>
-    <t>30 30</t>
+    <t>G</t>
+  </si>
+  <si>
+    <t>445 279</t>
+  </si>
+  <si>
+    <t>2670</t>
   </si>
   <si>
     <t>2 000</t>
@@ -646,6 +637,9 @@
     <t>B o n n d o r f ,    Bäsm ÄM fer  V o lk s b l a t t .......................</t>
   </si>
   <si>
+    <t>t  A</t>
+  </si>
+  <si>
     <t>2460</t>
   </si>
   <si>
@@ -667,9 +661,6 @@
     <t>820</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>390 280</t>
   </si>
   <si>
@@ -910,9 +901,6 @@
     <t>432 280</t>
   </si>
   <si>
-    <t>2592</t>
-  </si>
-  <si>
     <t>Siehe  A n z eig e  S .  78</t>
   </si>
   <si>
@@ -1033,9 +1021,6 @@
     <t>475</t>
   </si>
   <si>
-    <t>2 8</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -1120,12 +1105,12 @@
     <t>Siehe  A n zeig e  S . 98</t>
   </si>
   <si>
+    <t>O S chw arz Wälder  T a gb la tt  Siehe  A n zeig e  S.  97</t>
+  </si>
+  <si>
     <t>1 3</t>
   </si>
   <si>
-    <t>O S chw arz Wälder  T a gb la tt  Siehe  A n zeig e  S.  97</t>
-  </si>
-  <si>
     <t>5 000</t>
   </si>
   <si>
@@ -1324,9 +1309,6 @@
     <t>'H oekenheim er  Z e i t u n g ..............................................</t>
   </si>
   <si>
-    <t>6 6</t>
-  </si>
-  <si>
     <t>H o m b e r g ,   Schw afzw älder  C h r o n i k ..................</t>
   </si>
   <si>
@@ -1388,9 +1370,6 @@
   </si>
   <si>
     <t>82  900</t>
-  </si>
-  <si>
-    <t>10 11</t>
   </si>
   <si>
     <t>98</t>
@@ -4955,34 +4934,50 @@
       <c r="F60" t="s">
         <v>21</v>
       </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s"/>
-      <c r="J60" t="s"/>
-      <c r="K60" t="s"/>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
       <c r="L60" t="s"/>
-      <c r="M60" t="s"/>
-      <c r="N60" t="s"/>
+      <c r="M60" t="s">
+        <v>196</v>
+      </c>
+      <c r="N60" t="s">
+        <v>197</v>
+      </c>
       <c r="O60" t="s">
         <v>39</v>
       </c>
-      <c r="P60" t="s"/>
+      <c r="P60" t="s">
+        <v>109</v>
+      </c>
       <c r="Q60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
@@ -4991,32 +4986,32 @@
         <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="H61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I61" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="J61" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="K61" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="L61" t="s"/>
       <c r="M61" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O61" t="s">
         <v>39</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -5024,10 +5019,10 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C62" t="s">
         <v>124</v>
@@ -5052,14 +5047,14 @@
         <v>145</v>
       </c>
       <c r="K62" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="L62" t="s"/>
       <c r="M62" t="s">
         <v>182</v>
       </c>
       <c r="N62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O62" t="s">
         <v>39</v>
@@ -5072,7 +5067,7 @@
     <row r="63" spans="1:17">
       <c r="A63" t="s"/>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C63" t="s"/>
       <c r="D63" t="s"/>
@@ -5082,9 +5077,7 @@
       <c r="H63" t="s"/>
       <c r="I63" t="s"/>
       <c r="J63" t="s"/>
-      <c r="K63" t="s">
-        <v>161</v>
-      </c>
+      <c r="K63" t="s"/>
       <c r="L63" t="s"/>
       <c r="M63" t="s"/>
       <c r="N63" t="s"/>
@@ -5096,10 +5089,10 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C64" t="s">
         <v>124</v>
@@ -5145,13 +5138,13 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" t="s">
         <v>214</v>
-      </c>
-      <c r="B65" t="s">
-        <v>215</v>
-      </c>
-      <c r="C65" t="s">
-        <v>216</v>
       </c>
       <c r="D65" t="s">
         <v>135</v>
@@ -5166,7 +5159,7 @@
         <v>84</v>
       </c>
       <c r="H65" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I65" t="s">
         <v>24</v>
@@ -5179,13 +5172,13 @@
       </c>
       <c r="L65" t="s"/>
       <c r="M65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N65" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O65" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -5195,7 +5188,7 @@
     <row r="66" spans="1:17">
       <c r="A66" t="s"/>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s"/>
       <c r="D66" t="s"/>
@@ -5217,13 +5210,13 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
@@ -5238,7 +5231,7 @@
         <v>135</v>
       </c>
       <c r="H67" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I67" t="s">
         <v>24</v>
@@ -5251,16 +5244,16 @@
       </c>
       <c r="L67" t="s"/>
       <c r="M67" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N67" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O67" t="s">
         <v>39</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5269,7 +5262,7 @@
     <row r="68" spans="1:17">
       <c r="A68" t="s"/>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s"/>
       <c r="D68" t="s"/>
@@ -5292,7 +5285,7 @@
     <row r="69" spans="1:17">
       <c r="A69" t="s"/>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C69" t="s"/>
       <c r="D69" t="s"/>
@@ -5315,10 +5308,10 @@
     <row r="70" spans="1:17">
       <c r="A70" t="s"/>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C70" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
@@ -5333,7 +5326,7 @@
         <v>135</v>
       </c>
       <c r="H70" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I70" t="s">
         <v>24</v>
@@ -5346,7 +5339,7 @@
       </c>
       <c r="L70" t="s"/>
       <c r="M70" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N70" t="s">
         <v>100</v>
@@ -5355,7 +5348,7 @@
         <v>39</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5364,10 +5357,10 @@
     <row r="71" spans="1:17">
       <c r="A71" t="s"/>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
@@ -5382,7 +5375,7 @@
         <v>135</v>
       </c>
       <c r="H71" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I71" t="s">
         <v>186</v>
@@ -5395,7 +5388,7 @@
       </c>
       <c r="L71" t="s"/>
       <c r="M71" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N71" t="s">
         <v>100</v>
@@ -5412,13 +5405,13 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
@@ -5436,7 +5429,7 @@
         <v>57</v>
       </c>
       <c r="I72" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J72" t="s">
         <v>145</v>
@@ -5462,7 +5455,7 @@
     <row r="73" spans="1:17">
       <c r="A73" t="s"/>
       <c r="B73" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C73" t="s"/>
       <c r="D73" t="s"/>
@@ -5485,10 +5478,10 @@
     <row r="74" spans="1:17">
       <c r="A74" t="s"/>
       <c r="B74" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
@@ -5516,16 +5509,16 @@
       </c>
       <c r="L74" t="s"/>
       <c r="M74" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N74" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O74" t="s">
         <v>39</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q74" t="n">
         <v>2</v>
@@ -5534,10 +5527,10 @@
     <row r="75" spans="1:17">
       <c r="A75" t="s"/>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C75" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
@@ -5581,10 +5574,10 @@
     <row r="76" spans="1:17">
       <c r="A76" t="s"/>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C76" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D76" t="s">
         <v>21</v>
@@ -5602,7 +5595,7 @@
         <v>57</v>
       </c>
       <c r="I76" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J76" t="s">
         <v>98</v>
@@ -5612,10 +5605,10 @@
       </c>
       <c r="L76" t="s"/>
       <c r="M76" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N76" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O76" t="s">
         <v>39</v>
@@ -5627,13 +5620,13 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B77" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
         <v>21</v>
@@ -5645,13 +5638,13 @@
         <v>21</v>
       </c>
       <c r="G77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H77" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I77" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J77" t="s">
         <v>98</v>
@@ -5661,7 +5654,7 @@
       </c>
       <c r="L77" t="s"/>
       <c r="M77" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N77" t="s">
         <v>86</v>
@@ -5679,10 +5672,10 @@
     <row r="78" spans="1:17">
       <c r="A78" t="s"/>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
@@ -5694,7 +5687,7 @@
         <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H78" t="s">
         <v>69</v>
@@ -5710,16 +5703,16 @@
       </c>
       <c r="L78" t="s"/>
       <c r="M78" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O78" t="s">
         <v>39</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q78" t="n">
         <v>2</v>
@@ -5727,10 +5720,10 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C79" t="s"/>
       <c r="D79" t="s"/>
@@ -5753,7 +5746,7 @@
     <row r="80" spans="1:17">
       <c r="A80" t="s"/>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C80" t="s"/>
       <c r="D80" t="s">
@@ -5769,7 +5762,7 @@
         <v>94</v>
       </c>
       <c r="H80" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I80" t="s">
         <v>97</v>
@@ -5781,19 +5774,19 @@
         <v>26</v>
       </c>
       <c r="L80" t="s">
+        <v>260</v>
+      </c>
+      <c r="M80" t="s">
+        <v>261</v>
+      </c>
+      <c r="N80" t="s">
+        <v>262</v>
+      </c>
+      <c r="O80" t="s">
+        <v>39</v>
+      </c>
+      <c r="P80" t="s">
         <v>263</v>
-      </c>
-      <c r="M80" t="s">
-        <v>264</v>
-      </c>
-      <c r="N80" t="s">
-        <v>265</v>
-      </c>
-      <c r="O80" t="s">
-        <v>39</v>
-      </c>
-      <c r="P80" t="s">
-        <v>266</v>
       </c>
       <c r="Q80" t="n">
         <v>2</v>
@@ -5801,13 +5794,13 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -5825,7 +5818,7 @@
         <v>57</v>
       </c>
       <c r="I81" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J81" t="s">
         <v>109</v>
@@ -5834,13 +5827,13 @@
         <v>26</v>
       </c>
       <c r="L81" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M81" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N81" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O81" t="s">
         <v>39</v>
@@ -5853,7 +5846,7 @@
     <row r="82" spans="1:17">
       <c r="A82" t="s"/>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C82" t="s"/>
       <c r="D82" t="s"/>
@@ -5876,10 +5869,10 @@
     <row r="83" spans="1:17">
       <c r="A83" t="s"/>
       <c r="B83" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D83" t="s">
         <v>94</v>
@@ -5906,10 +5899,10 @@
         <v>26</v>
       </c>
       <c r="L83" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M83" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N83" t="s">
         <v>59</v>
@@ -5925,7 +5918,7 @@
     <row r="84" spans="1:17">
       <c r="A84" t="s"/>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s"/>
       <c r="D84" t="s"/>
@@ -5947,13 +5940,13 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C85" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
@@ -5968,7 +5961,7 @@
         <v>21</v>
       </c>
       <c r="H85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I85" t="s">
         <v>24</v>
@@ -5980,10 +5973,10 @@
         <v>26</v>
       </c>
       <c r="L85" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N85" t="s">
         <v>86</v>
@@ -6001,7 +5994,7 @@
     <row r="86" spans="1:17">
       <c r="A86" t="s"/>
       <c r="B86" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C86" t="s"/>
       <c r="D86" t="s"/>
@@ -6024,10 +6017,10 @@
     <row r="87" spans="1:17">
       <c r="A87" t="s"/>
       <c r="B87" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -6058,7 +6051,7 @@
         <v>78</v>
       </c>
       <c r="N87" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O87" t="s">
         <v>39</v>
@@ -6071,10 +6064,10 @@
     <row r="88" spans="1:17">
       <c r="A88" t="s"/>
       <c r="B88" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C88" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -6102,10 +6095,10 @@
       </c>
       <c r="L88" t="s"/>
       <c r="M88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N88" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O88" t="s">
         <v>39</v>
@@ -6118,7 +6111,7 @@
     <row r="89" spans="1:17">
       <c r="A89" t="s"/>
       <c r="B89" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C89" t="s"/>
       <c r="D89" t="s"/>
@@ -6140,13 +6133,13 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -6174,16 +6167,16 @@
       </c>
       <c r="L90" t="s"/>
       <c r="M90" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N90" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="O90" t="s">
         <v>39</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q90" t="n">
         <v>2</v>
@@ -6192,7 +6185,7 @@
     <row r="91" spans="1:17">
       <c r="A91" t="s"/>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C91" t="s"/>
       <c r="D91" t="s"/>
@@ -6215,10 +6208,10 @@
     <row r="92" spans="1:17">
       <c r="A92" t="s"/>
       <c r="B92" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C92" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D92" t="s">
         <v>21</v>
@@ -6255,7 +6248,7 @@
         <v>39</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q92" t="n">
         <v>2</v>
@@ -6264,10 +6257,10 @@
     <row r="93" spans="1:17">
       <c r="A93" t="s"/>
       <c r="B93" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C93" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D93" t="s">
         <v>21</v>
@@ -6279,7 +6272,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H93" t="s">
         <v>57</v>
@@ -6298,7 +6291,7 @@
         <v>58</v>
       </c>
       <c r="N93" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O93" t="s">
         <v>39</v>
@@ -6313,7 +6306,7 @@
     <row r="94" spans="1:17">
       <c r="A94" t="s"/>
       <c r="B94" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s"/>
       <c r="D94" t="s"/>
@@ -6335,13 +6328,13 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B95" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C95" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D95" t="s">
         <v>94</v>
@@ -6384,13 +6377,13 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B96" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -6405,7 +6398,7 @@
         <v>84</v>
       </c>
       <c r="H96" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I96" t="s">
         <v>181</v>
@@ -6418,10 +6411,10 @@
       </c>
       <c r="L96" t="s"/>
       <c r="M96" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N96" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O96" t="s">
         <v>39</v>
@@ -6433,13 +6426,13 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B97" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C97" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D97" t="s">
         <v>21</v>
@@ -6454,13 +6447,13 @@
         <v>135</v>
       </c>
       <c r="H97" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I97" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J97" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K97" t="s">
         <v>26</v>
@@ -6483,7 +6476,7 @@
     <row r="98" spans="1:17">
       <c r="A98" t="s"/>
       <c r="B98" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C98" t="s"/>
       <c r="D98" t="s"/>
@@ -6506,10 +6499,10 @@
     <row r="99" spans="1:17">
       <c r="A99" t="s"/>
       <c r="B99" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C99" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D99" t="s">
         <v>21</v>
@@ -6537,16 +6530,16 @@
       </c>
       <c r="L99" t="s"/>
       <c r="M99" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N99" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O99" t="s">
         <v>39</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q99" t="n">
         <v>2</v>
@@ -6554,13 +6547,13 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C100" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D100" t="s">
         <v>94</v>
@@ -6588,10 +6581,10 @@
       </c>
       <c r="L100" t="s"/>
       <c r="M100" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N100" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="O100" t="s">
         <v>39</v>
@@ -6606,7 +6599,7 @@
     <row r="101" spans="1:17">
       <c r="A101" t="s"/>
       <c r="B101" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C101" t="s"/>
       <c r="D101" t="s"/>
@@ -6628,13 +6621,13 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B102" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D102" t="s">
         <v>21</v>
@@ -6678,7 +6671,7 @@
     <row r="103" spans="1:17">
       <c r="A103" t="s"/>
       <c r="B103" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C103" t="s"/>
       <c r="D103" t="s"/>
@@ -6701,10 +6694,10 @@
     <row r="104" spans="1:17">
       <c r="A104" t="s"/>
       <c r="B104" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C104" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D104" t="s">
         <v>21</v>
@@ -6722,7 +6715,7 @@
         <v>57</v>
       </c>
       <c r="I104" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J104" t="s">
         <v>98</v>
@@ -6732,7 +6725,7 @@
       </c>
       <c r="L104" t="s"/>
       <c r="M104" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N104" t="s">
         <v>86</v>
@@ -6750,7 +6743,7 @@
     <row r="105" spans="1:17">
       <c r="A105" t="s"/>
       <c r="B105" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C105" t="s"/>
       <c r="D105" t="s"/>
@@ -6772,10 +6765,10 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B106" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C106" t="s"/>
       <c r="D106" t="s"/>
@@ -6798,7 +6791,7 @@
     <row r="107" spans="1:17">
       <c r="A107" t="s"/>
       <c r="B107" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C107" t="s"/>
       <c r="D107" t="s"/>
@@ -6821,7 +6814,7 @@
     <row r="108" spans="1:17">
       <c r="A108" t="s"/>
       <c r="B108" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C108" t="s"/>
       <c r="D108" t="s"/>
@@ -6843,10 +6836,10 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C109" t="s"/>
       <c r="D109" t="s"/>
@@ -6869,13 +6862,13 @@
     <row r="110" spans="1:17">
       <c r="A110" t="s"/>
       <c r="B110" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D110" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E110" t="s">
         <v>22</v>
@@ -6884,10 +6877,10 @@
         <v>135</v>
       </c>
       <c r="G110" t="s">
-        <v>339</v>
+        <v>201</v>
       </c>
       <c r="H110" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I110" t="s">
         <v>130</v>
@@ -6900,16 +6893,16 @@
       </c>
       <c r="L110" t="s"/>
       <c r="M110" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="N110" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O110" t="s">
         <v>39</v>
       </c>
       <c r="P110" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q110" t="n">
         <v>2</v>
@@ -6917,13 +6910,13 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B111" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C111" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D111" t="s">
         <v>44</v>
@@ -6934,12 +6927,14 @@
       <c r="F111" t="s">
         <v>113</v>
       </c>
-      <c r="G111" t="s"/>
+      <c r="G111" t="s">
+        <v>65</v>
+      </c>
       <c r="H111" t="s">
         <v>57</v>
       </c>
       <c r="I111" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J111" t="s">
         <v>68</v>
@@ -6949,16 +6944,16 @@
       </c>
       <c r="L111" t="s"/>
       <c r="M111" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="N111" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="O111" t="s">
         <v>39</v>
       </c>
       <c r="P111" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Q111" t="n">
         <v>2</v>
@@ -6967,7 +6962,7 @@
     <row r="112" spans="1:17">
       <c r="A112" t="s"/>
       <c r="B112" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C112" t="s"/>
       <c r="D112" t="s"/>
@@ -6990,10 +6985,10 @@
     <row r="113" spans="1:17">
       <c r="A113" t="s"/>
       <c r="B113" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C113" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D113" t="s">
         <v>44</v>
@@ -7011,7 +7006,7 @@
         <v>46</v>
       </c>
       <c r="I113" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J113" t="s">
         <v>68</v>
@@ -7024,13 +7019,13 @@
         <v>125</v>
       </c>
       <c r="N113" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O113" t="s">
         <v>39</v>
       </c>
       <c r="P113" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q113" t="n">
         <v>2</v>
@@ -7039,10 +7034,10 @@
     <row r="114" spans="1:17">
       <c r="A114" t="s"/>
       <c r="B114" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C114" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D114" t="s">
         <v>157</v>
@@ -7054,7 +7049,7 @@
         <v>21</v>
       </c>
       <c r="G114" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H114" t="s">
         <v>57</v>
@@ -7070,7 +7065,7 @@
       </c>
       <c r="L114" t="s"/>
       <c r="M114" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N114" t="s">
         <v>59</v>
@@ -7079,7 +7074,7 @@
         <v>39</v>
       </c>
       <c r="P114" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q114" t="n">
         <v>2</v>
@@ -7088,7 +7083,7 @@
     <row r="115" spans="1:17">
       <c r="A115" t="s"/>
       <c r="B115" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C115" t="s"/>
       <c r="D115" t="s"/>
@@ -7111,7 +7106,7 @@
     <row r="116" spans="1:17">
       <c r="A116" t="s"/>
       <c r="B116" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C116" t="s"/>
       <c r="D116" t="s"/>
@@ -7134,7 +7129,7 @@
     <row r="117" spans="1:17">
       <c r="A117" t="s"/>
       <c r="B117" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C117" t="s"/>
       <c r="D117" t="s"/>
@@ -7156,14 +7151,14 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B118" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C118" t="s"/>
       <c r="D118" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E118" t="s">
         <v>22</v>
@@ -7205,10 +7200,10 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B119" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C119" t="s">
         <v>102</v>
@@ -7226,7 +7221,7 @@
         <v>84</v>
       </c>
       <c r="H119" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I119" t="s">
         <v>24</v>
@@ -7257,15 +7252,13 @@
     <row r="120" spans="1:17">
       <c r="A120" t="s"/>
       <c r="B120" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C120" t="s"/>
       <c r="D120" t="s"/>
       <c r="E120" t="s"/>
       <c r="F120" t="s"/>
-      <c r="G120" t="s">
-        <v>368</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s"/>
       <c r="I120" t="s"/>
       <c r="J120" t="s"/>
@@ -7282,10 +7275,10 @@
     <row r="121" spans="1:17">
       <c r="A121" t="s"/>
       <c r="B121" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C121" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D121" t="s">
         <v>21</v>
@@ -7296,9 +7289,11 @@
       <c r="F121" t="s">
         <v>21</v>
       </c>
-      <c r="G121" t="s"/>
+      <c r="G121" t="s">
+        <v>364</v>
+      </c>
       <c r="H121" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I121" t="s">
         <v>181</v>
@@ -7328,13 +7323,13 @@
     </row>
     <row r="122" spans="1:17">
       <c r="A122" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B122" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C122" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D122" t="s">
         <v>21</v>
@@ -7379,13 +7374,13 @@
     </row>
     <row r="123" spans="1:17">
       <c r="A123" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B123" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C123" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D123" t="s">
         <v>94</v>
@@ -7413,7 +7408,7 @@
       </c>
       <c r="L123" t="s"/>
       <c r="M123" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N123" t="s">
         <v>28</v>
@@ -7427,7 +7422,7 @@
     <row r="124" spans="1:17">
       <c r="A124" t="s"/>
       <c r="B124" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C124" t="s"/>
       <c r="D124" t="s"/>
@@ -7449,10 +7444,10 @@
     </row>
     <row r="125" spans="1:17">
       <c r="A125" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B125" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C125" t="s"/>
       <c r="D125" t="s"/>
@@ -7475,10 +7470,10 @@
     <row r="126" spans="1:17">
       <c r="A126" t="s"/>
       <c r="B126" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D126" t="s">
         <v>21</v>
@@ -7526,10 +7521,10 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C127" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D127" t="s">
         <v>21</v>
@@ -7550,7 +7545,7 @@
         <v>24</v>
       </c>
       <c r="J127" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K127" t="s">
         <v>26</v>
@@ -7563,7 +7558,7 @@
         <v>86</v>
       </c>
       <c r="O127" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P127" t="s">
         <v>36</v>
@@ -7574,10 +7569,10 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B128" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C128" t="s"/>
       <c r="D128" t="s"/>
@@ -7600,7 +7595,7 @@
     <row r="129" spans="1:17">
       <c r="A129" t="s"/>
       <c r="B129" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C129" t="s"/>
       <c r="D129" t="s"/>
@@ -7623,7 +7618,7 @@
     <row r="130" spans="1:17">
       <c r="A130" t="s"/>
       <c r="B130" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C130" t="s"/>
       <c r="D130" t="s">
@@ -7651,13 +7646,13 @@
         <v>26</v>
       </c>
       <c r="L130" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M130" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N130" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O130" t="s">
         <v>39</v>
@@ -7672,7 +7667,7 @@
     <row r="131" spans="1:17">
       <c r="A131" t="s"/>
       <c r="B131" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C131" t="s"/>
       <c r="D131" t="s"/>
@@ -7694,10 +7689,10 @@
     </row>
     <row r="132" spans="1:17">
       <c r="A132" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B132" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C132" t="s"/>
       <c r="D132" t="s"/>
@@ -7720,7 +7715,7 @@
     <row r="133" spans="1:17">
       <c r="A133" t="s"/>
       <c r="B133" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C133" t="s"/>
       <c r="D133" t="s">
@@ -7736,7 +7731,7 @@
         <v>94</v>
       </c>
       <c r="H133" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I133" t="s">
         <v>97</v>
@@ -7748,19 +7743,19 @@
         <v>26</v>
       </c>
       <c r="L133" t="s">
+        <v>260</v>
+      </c>
+      <c r="M133" t="s">
+        <v>261</v>
+      </c>
+      <c r="N133" t="s">
+        <v>262</v>
+      </c>
+      <c r="O133" t="s">
+        <v>39</v>
+      </c>
+      <c r="P133" t="s">
         <v>263</v>
-      </c>
-      <c r="M133" t="s">
-        <v>264</v>
-      </c>
-      <c r="N133" t="s">
-        <v>265</v>
-      </c>
-      <c r="O133" t="s">
-        <v>39</v>
-      </c>
-      <c r="P133" t="s">
-        <v>266</v>
       </c>
       <c r="Q133" t="n">
         <v>2</v>
@@ -7768,10 +7763,10 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B134" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C134" t="s"/>
       <c r="D134" t="s"/>
@@ -7794,7 +7789,7 @@
     <row r="135" spans="1:17">
       <c r="A135" t="s"/>
       <c r="B135" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C135" t="s"/>
       <c r="D135" t="s"/>
@@ -7817,10 +7812,10 @@
     <row r="136" spans="1:17">
       <c r="A136" t="s"/>
       <c r="B136" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C136" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D136" t="s">
         <v>21</v>
@@ -7832,7 +7827,7 @@
         <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H136" t="s">
         <v>57</v>
@@ -7847,13 +7842,13 @@
         <v>26</v>
       </c>
       <c r="L136" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M136" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N136" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O136" t="s">
         <v>39</v>
@@ -7868,7 +7863,7 @@
     <row r="137" spans="1:17">
       <c r="A137" t="s"/>
       <c r="B137" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C137" t="s"/>
       <c r="D137" t="s"/>
@@ -7890,13 +7885,13 @@
     </row>
     <row r="138" spans="1:17">
       <c r="A138" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B138" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C138" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D138" t="s">
         <v>21</v>
@@ -7917,17 +7912,17 @@
         <v>181</v>
       </c>
       <c r="J138" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K138" t="s">
         <v>26</v>
       </c>
       <c r="L138" t="s"/>
       <c r="M138" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="N138" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O138" t="s">
         <v>39</v>
@@ -7939,13 +7934,13 @@
     </row>
     <row r="139" spans="1:17">
       <c r="A139" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B139" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C139" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D139" t="s">
         <v>21</v>
@@ -7973,10 +7968,10 @@
       </c>
       <c r="L139" t="s"/>
       <c r="M139" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="N139" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="O139" t="s">
         <v>39</v>
@@ -7991,7 +7986,7 @@
     <row r="140" spans="1:17">
       <c r="A140" t="s"/>
       <c r="B140" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C140" t="s"/>
       <c r="D140" t="s"/>
@@ -8014,10 +8009,10 @@
     <row r="141" spans="1:17">
       <c r="A141" t="s"/>
       <c r="B141" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C141" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D141" t="s">
         <v>21</v>
@@ -8035,7 +8030,7 @@
         <v>66</v>
       </c>
       <c r="I141" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J141" t="s">
         <v>109</v>
@@ -8045,7 +8040,7 @@
       </c>
       <c r="L141" t="s"/>
       <c r="M141" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="N141" t="s">
         <v>108</v>
@@ -8084,10 +8079,10 @@
     <row r="143" spans="1:17">
       <c r="A143" t="s"/>
       <c r="B143" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C143" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D143" t="s">
         <v>21</v>
@@ -8105,7 +8100,7 @@
         <v>57</v>
       </c>
       <c r="I143" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J143" t="s">
         <v>132</v>
@@ -8115,7 +8110,7 @@
       </c>
       <c r="L143" t="s"/>
       <c r="M143" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="N143" t="s">
         <v>86</v>
@@ -8133,10 +8128,10 @@
     <row r="144" spans="1:17">
       <c r="A144" t="s"/>
       <c r="B144" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C144" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D144" t="s">
         <v>157</v>
@@ -8151,10 +8146,10 @@
         <v>157</v>
       </c>
       <c r="H144" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I144" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J144" t="s">
         <v>30</v>
@@ -8164,7 +8159,7 @@
       </c>
       <c r="L144" t="s"/>
       <c r="M144" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="N144" t="s">
         <v>50</v>
@@ -8181,10 +8176,10 @@
     </row>
     <row r="145" spans="1:17">
       <c r="A145" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B145" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C145" t="s"/>
       <c r="D145" t="s"/>
@@ -8207,16 +8202,14 @@
     <row r="146" spans="1:17">
       <c r="A146" t="s"/>
       <c r="B146" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C146" t="s"/>
       <c r="D146" t="s"/>
       <c r="E146" t="s"/>
       <c r="F146" t="s"/>
       <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>23</v>
-      </c>
+      <c r="H146" t="s"/>
       <c r="I146" t="s"/>
       <c r="J146" t="s"/>
       <c r="K146" t="s"/>
@@ -8231,10 +8224,10 @@
     </row>
     <row r="147" spans="1:17">
       <c r="A147" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B147" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C147" t="s"/>
       <c r="D147" t="s">
@@ -8249,9 +8242,11 @@
       <c r="G147" t="s">
         <v>135</v>
       </c>
-      <c r="H147" t="s"/>
+      <c r="H147" t="s">
+        <v>23</v>
+      </c>
       <c r="I147" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J147" t="s">
         <v>145</v>
@@ -8260,13 +8255,13 @@
         <v>26</v>
       </c>
       <c r="L147" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M147" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="N147" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O147" t="s">
         <v>39</v>
@@ -8279,27 +8274,21 @@
     <row r="148" spans="1:17">
       <c r="A148" t="s"/>
       <c r="B148" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C148" t="s"/>
       <c r="D148" t="s"/>
       <c r="E148" t="s"/>
       <c r="F148" t="s"/>
-      <c r="G148" t="s">
-        <v>84</v>
-      </c>
-      <c r="H148" t="s">
-        <v>23</v>
-      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s"/>
       <c r="I148" t="s"/>
       <c r="J148" t="s"/>
       <c r="K148" t="s"/>
       <c r="L148" t="s"/>
       <c r="M148" t="s"/>
       <c r="N148" t="s"/>
-      <c r="O148" t="s">
-        <v>39</v>
-      </c>
+      <c r="O148" t="s"/>
       <c r="P148" t="s"/>
       <c r="Q148" t="n">
         <v>2</v>
@@ -8307,13 +8296,13 @@
     </row>
     <row r="149" spans="1:17">
       <c r="A149" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B149" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C149" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D149" t="s">
         <v>21</v>
@@ -8324,25 +8313,31 @@
       <c r="F149" t="s">
         <v>21</v>
       </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s"/>
+      <c r="G149" t="s">
+        <v>84</v>
+      </c>
+      <c r="H149" t="s">
+        <v>23</v>
+      </c>
       <c r="I149" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J149" t="s">
         <v>65</v>
       </c>
       <c r="K149" t="s"/>
       <c r="L149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M149" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N149" t="s">
         <v>86</v>
       </c>
-      <c r="O149" t="s"/>
+      <c r="O149" t="s">
+        <v>39</v>
+      </c>
       <c r="P149" t="s"/>
       <c r="Q149" t="n">
         <v>2</v>
@@ -8351,10 +8346,10 @@
     <row r="150" spans="1:17">
       <c r="A150" t="s"/>
       <c r="B150" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C150" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D150" t="s">
         <v>21</v>
@@ -8363,7 +8358,7 @@
         <v>22</v>
       </c>
       <c r="F150" t="s">
-        <v>436</v>
+        <v>21</v>
       </c>
       <c r="G150" t="s">
         <v>94</v>
@@ -8378,13 +8373,13 @@
         <v>145</v>
       </c>
       <c r="K150" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="L150" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M150" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N150" t="s">
         <v>86</v>
@@ -8401,13 +8396,13 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B151" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C151" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D151" t="s">
         <v>21</v>
@@ -8415,12 +8410,14 @@
       <c r="E151" t="s">
         <v>22</v>
       </c>
-      <c r="F151" t="s"/>
+      <c r="F151" t="s">
+        <v>21</v>
+      </c>
       <c r="G151" t="s">
         <v>135</v>
       </c>
       <c r="H151" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I151" t="s">
         <v>97</v>
@@ -8428,10 +8425,12 @@
       <c r="J151" t="s">
         <v>44</v>
       </c>
-      <c r="K151" t="s"/>
+      <c r="K151" t="s">
+        <v>26</v>
+      </c>
       <c r="L151" t="s"/>
       <c r="M151" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N151" t="s">
         <v>28</v>
@@ -8440,7 +8439,7 @@
         <v>39</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q151" t="n">
         <v>2</v>
@@ -8449,7 +8448,7 @@
     <row r="152" spans="1:17">
       <c r="A152" t="s"/>
       <c r="B152" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C152" t="s"/>
       <c r="D152" t="s"/>
@@ -8472,7 +8471,7 @@
     <row r="153" spans="1:17">
       <c r="A153" t="s"/>
       <c r="B153" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C153" t="s"/>
       <c r="D153" t="s"/>
@@ -8494,10 +8493,10 @@
     </row>
     <row r="154" spans="1:17">
       <c r="A154" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B154" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C154" t="s"/>
       <c r="D154" t="s"/>
@@ -8520,7 +8519,7 @@
     <row r="155" spans="1:17">
       <c r="A155" t="s"/>
       <c r="B155" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C155" t="s"/>
       <c r="D155" t="s">
@@ -8533,7 +8532,7 @@
         <v>135</v>
       </c>
       <c r="G155" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H155" t="s"/>
       <c r="I155" t="s"/>
@@ -8542,19 +8541,19 @@
         <v>26</v>
       </c>
       <c r="L155" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M155" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N155" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="O155" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P155" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q155" t="n">
         <v>2</v>
@@ -8562,13 +8561,13 @@
     </row>
     <row r="156" spans="1:17">
       <c r="A156" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B156" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C156" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D156" t="s">
         <v>157</v>
@@ -8579,8 +8578,12 @@
       <c r="F156" t="s">
         <v>44</v>
       </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s"/>
+      <c r="G156" t="s">
+        <v>21</v>
+      </c>
+      <c r="H156" t="s">
+        <v>46</v>
+      </c>
       <c r="I156" t="s">
         <v>186</v>
       </c>
@@ -8591,15 +8594,17 @@
         <v>69</v>
       </c>
       <c r="L156" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M156" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N156" t="s">
         <v>108</v>
       </c>
-      <c r="O156" t="s"/>
+      <c r="O156" t="s">
+        <v>39</v>
+      </c>
       <c r="P156" t="s">
         <v>109</v>
       </c>
@@ -8610,27 +8615,21 @@
     <row r="157" spans="1:17">
       <c r="A157" t="s"/>
       <c r="B157" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C157" t="s"/>
       <c r="D157" t="s"/>
       <c r="E157" t="s"/>
       <c r="F157" t="s"/>
-      <c r="G157" t="s">
-        <v>21</v>
-      </c>
-      <c r="H157" t="s">
-        <v>46</v>
-      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s"/>
       <c r="I157" t="s"/>
       <c r="J157" t="s"/>
       <c r="K157" t="s"/>
       <c r="L157" t="s"/>
       <c r="M157" t="s"/>
       <c r="N157" t="s"/>
-      <c r="O157" t="s">
-        <v>39</v>
-      </c>
+      <c r="O157" t="s"/>
       <c r="P157" t="s"/>
       <c r="Q157" t="n">
         <v>2</v>
@@ -8639,7 +8638,7 @@
     <row r="158" spans="1:17">
       <c r="A158" t="s"/>
       <c r="B158" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C158" t="s"/>
       <c r="D158" t="s"/>
@@ -8662,7 +8661,7 @@
     <row r="159" spans="1:17">
       <c r="A159" t="s"/>
       <c r="B159" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C159" t="s"/>
       <c r="D159" t="s"/>
@@ -8685,7 +8684,7 @@
     <row r="160" spans="1:17">
       <c r="A160" t="s"/>
       <c r="B160" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C160" t="s"/>
       <c r="D160" t="s"/>
@@ -8708,7 +8707,7 @@
     <row r="161" spans="1:17">
       <c r="A161" t="s"/>
       <c r="B161" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C161" t="s"/>
       <c r="D161" t="s"/>
@@ -8731,10 +8730,10 @@
     <row r="162" spans="1:17">
       <c r="A162" t="s"/>
       <c r="B162" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C162" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D162" t="s">
         <v>44</v>
@@ -8746,29 +8745,29 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>458</v>
+        <v>145</v>
       </c>
       <c r="H162" t="s">
         <v>46</v>
       </c>
       <c r="I162" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J162" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K162" t="s">
         <v>66</v>
       </c>
       <c r="L162" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M162" t="s"/>
       <c r="N162" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="O162" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="P162" t="s">
         <v>132</v>
@@ -8780,10 +8779,10 @@
     <row r="163" spans="1:17">
       <c r="A163" t="s"/>
       <c r="B163" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C163" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D163" t="s">
         <v>44</v>
@@ -8794,21 +8793,23 @@
       <c r="F163" t="s">
         <v>44</v>
       </c>
-      <c r="G163" t="s"/>
+      <c r="G163" t="s">
+        <v>352</v>
+      </c>
       <c r="H163" t="s">
         <v>46</v>
       </c>
       <c r="I163" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J163" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K163" t="s">
         <v>66</v>
       </c>
       <c r="L163" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M163" t="s"/>
       <c r="N163" t="s">
@@ -8826,10 +8827,10 @@
     </row>
     <row r="164" spans="1:17">
       <c r="A164" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B164" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C164" t="s"/>
       <c r="D164" t="s"/>
@@ -8843,9 +8844,7 @@
       <c r="L164" t="s"/>
       <c r="M164" t="s"/>
       <c r="N164" t="s"/>
-      <c r="O164" t="s">
-        <v>39</v>
-      </c>
+      <c r="O164" t="s"/>
       <c r="P164" t="s"/>
       <c r="Q164" t="n">
         <v>3</v>
@@ -8854,10 +8853,10 @@
     <row r="165" spans="1:17">
       <c r="A165" t="s"/>
       <c r="B165" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C165" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D165" t="s">
         <v>157</v>
@@ -8881,7 +8880,7 @@
         <v>68</v>
       </c>
       <c r="K165" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="L165" t="s"/>
       <c r="M165" t="s">
@@ -8890,7 +8889,9 @@
       <c r="N165" t="s">
         <v>108</v>
       </c>
-      <c r="O165" t="s"/>
+      <c r="O165" t="s">
+        <v>39</v>
+      </c>
       <c r="P165" t="s">
         <v>132</v>
       </c>
@@ -8901,7 +8902,7 @@
     <row r="166" spans="1:17">
       <c r="A166" t="s"/>
       <c r="B166" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C166" t="s"/>
       <c r="D166" t="s"/>
@@ -8924,7 +8925,7 @@
     <row r="167" spans="1:17">
       <c r="A167" t="s"/>
       <c r="B167" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C167" t="s"/>
       <c r="D167" t="s"/>
@@ -8947,7 +8948,7 @@
     <row r="168" spans="1:17">
       <c r="A168" t="s"/>
       <c r="B168" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C168" t="s"/>
       <c r="D168" t="s"/>
@@ -8970,7 +8971,7 @@
     <row r="169" spans="1:17">
       <c r="A169" t="s"/>
       <c r="B169" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C169" t="s"/>
       <c r="D169" t="s">
@@ -8983,24 +8984,24 @@
         <v>135</v>
       </c>
       <c r="G169" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H169" t="s"/>
       <c r="I169" t="s"/>
       <c r="J169" t="s"/>
       <c r="K169" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L169" t="s"/>
       <c r="M169" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="N169" t="s"/>
       <c r="O169" t="s">
         <v>39</v>
       </c>
       <c r="P169" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q169" t="n">
         <v>3</v>
@@ -9009,7 +9010,7 @@
     <row r="170" spans="1:17">
       <c r="A170" t="s"/>
       <c r="B170" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C170" t="s"/>
       <c r="D170" t="s"/>
@@ -9032,10 +9033,10 @@
     <row r="171" spans="1:17">
       <c r="A171" t="s"/>
       <c r="B171" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C171" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D171" t="s">
         <v>157</v>
@@ -9062,10 +9063,10 @@
         <v>69</v>
       </c>
       <c r="L171" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M171" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="N171" t="s">
         <v>108</v>
@@ -9083,10 +9084,10 @@
     <row r="172" spans="1:17">
       <c r="A172" t="s"/>
       <c r="B172" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C172" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D172" t="s">
         <v>21</v>
@@ -9104,7 +9105,7 @@
         <v>46</v>
       </c>
       <c r="I172" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J172" t="s">
         <v>132</v>
@@ -9113,13 +9114,13 @@
         <v>69</v>
       </c>
       <c r="L172" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M172" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="N172" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="O172" t="s">
         <v>39</v>
@@ -9134,10 +9135,10 @@
     <row r="173" spans="1:17">
       <c r="A173" t="s"/>
       <c r="B173" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C173" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D173" t="s">
         <v>21</v>
@@ -9155,7 +9156,7 @@
         <v>46</v>
       </c>
       <c r="I173" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J173" t="s">
         <v>98</v>
@@ -9164,10 +9165,10 @@
         <v>69</v>
       </c>
       <c r="L173" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M173" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="N173" t="s">
         <v>174</v>
@@ -9184,10 +9185,10 @@
     </row>
     <row r="174" spans="1:17">
       <c r="A174" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B174" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C174" t="s"/>
       <c r="D174" t="s"/>
@@ -9210,10 +9211,10 @@
     <row r="175" spans="1:17">
       <c r="A175" t="s"/>
       <c r="B175" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C175" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D175" t="s">
         <v>157</v>
@@ -9259,7 +9260,7 @@
     <row r="176" spans="1:17">
       <c r="A176" t="s"/>
       <c r="B176" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C176" t="s"/>
       <c r="D176" t="s"/>
@@ -9282,10 +9283,10 @@
     <row r="177" spans="1:17">
       <c r="A177" t="s"/>
       <c r="B177" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C177" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D177" t="s">
         <v>21</v>
@@ -9312,13 +9313,13 @@
         <v>69</v>
       </c>
       <c r="L177" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M177" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N177" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O177" t="s">
         <v>39</v>
@@ -9330,13 +9331,13 @@
     </row>
     <row r="178" spans="1:17">
       <c r="A178" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B178" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C178" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D178" t="s">
         <v>94</v>
@@ -9363,13 +9364,13 @@
         <v>26</v>
       </c>
       <c r="L178" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M178" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="N178" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O178" t="s">
         <v>39</v>
@@ -9382,7 +9383,7 @@
     <row r="179" spans="1:17">
       <c r="A179" t="s"/>
       <c r="B179" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C179" t="s"/>
       <c r="D179" t="s"/>
@@ -9404,13 +9405,13 @@
     </row>
     <row r="180" spans="1:17">
       <c r="A180" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B180" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C180" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D180" t="s">
         <v>21</v>
@@ -9428,7 +9429,7 @@
         <v>57</v>
       </c>
       <c r="I180" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J180" t="s">
         <v>109</v>
@@ -9437,10 +9438,10 @@
         <v>69</v>
       </c>
       <c r="L180" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M180" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="N180" t="s">
         <v>86</v>
@@ -9456,7 +9457,7 @@
     <row r="181" spans="1:17">
       <c r="A181" t="s"/>
       <c r="B181" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C181" t="s"/>
       <c r="D181" t="s"/>
@@ -9479,10 +9480,10 @@
     <row r="182" spans="1:17">
       <c r="A182" t="s"/>
       <c r="B182" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C182" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D182" t="s">
         <v>21</v>
@@ -9494,7 +9495,7 @@
         <v>21</v>
       </c>
       <c r="G182" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H182" t="s">
         <v>57</v>
@@ -9509,10 +9510,10 @@
         <v>69</v>
       </c>
       <c r="L182" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M182" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N182" t="s">
         <v>86</v>
@@ -9530,10 +9531,10 @@
     <row r="183" spans="1:17">
       <c r="A183" t="s"/>
       <c r="B183" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C183" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D183" t="s">
         <v>21</v>
@@ -9545,7 +9546,7 @@
         <v>21</v>
       </c>
       <c r="G183" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H183" t="s">
         <v>66</v>
@@ -9560,13 +9561,13 @@
         <v>69</v>
       </c>
       <c r="L183" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M183" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N183" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O183" t="s">
         <v>39</v>
@@ -9578,10 +9579,10 @@
     </row>
     <row r="184" spans="1:17">
       <c r="A184" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B184" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C184" t="s"/>
       <c r="D184" t="s"/>
@@ -9648,13 +9649,13 @@
     </row>
     <row r="186" spans="1:17">
       <c r="A186" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B186" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C186" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D186" t="s">
         <v>21</v>
@@ -9672,7 +9673,7 @@
         <v>57</v>
       </c>
       <c r="I186" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J186" t="s">
         <v>98</v>
@@ -9681,13 +9682,13 @@
         <v>26</v>
       </c>
       <c r="L186" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M186" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="N186" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="O186" t="s">
         <v>39</v>
@@ -9699,10 +9700,10 @@
     </row>
     <row r="187" spans="1:17">
       <c r="A187" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B187" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C187" t="s"/>
       <c r="D187" t="s">
@@ -9730,10 +9731,10 @@
         <v>26</v>
       </c>
       <c r="L187" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M187" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N187" t="s">
         <v>108</v>
@@ -9749,7 +9750,7 @@
     <row r="188" spans="1:17">
       <c r="A188" t="s"/>
       <c r="B188" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C188" t="s"/>
       <c r="D188" t="s"/>
@@ -9771,10 +9772,10 @@
     </row>
     <row r="189" spans="1:17">
       <c r="A189" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B189" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C189" t="s"/>
       <c r="D189" t="s"/>
@@ -9797,7 +9798,7 @@
     <row r="190" spans="1:17">
       <c r="A190" t="s"/>
       <c r="B190" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C190" t="s"/>
       <c r="D190" t="s">
@@ -9813,7 +9814,7 @@
         <v>94</v>
       </c>
       <c r="H190" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I190" t="s">
         <v>97</v>
@@ -9825,19 +9826,19 @@
         <v>26</v>
       </c>
       <c r="L190" t="s">
+        <v>260</v>
+      </c>
+      <c r="M190" t="s">
+        <v>261</v>
+      </c>
+      <c r="N190" t="s">
+        <v>262</v>
+      </c>
+      <c r="O190" t="s">
+        <v>39</v>
+      </c>
+      <c r="P190" t="s">
         <v>263</v>
-      </c>
-      <c r="M190" t="s">
-        <v>264</v>
-      </c>
-      <c r="N190" t="s">
-        <v>265</v>
-      </c>
-      <c r="O190" t="s">
-        <v>39</v>
-      </c>
-      <c r="P190" t="s">
-        <v>266</v>
       </c>
       <c r="Q190" t="n">
         <v>3</v>
@@ -9845,16 +9846,16 @@
     </row>
     <row r="191" spans="1:17">
       <c r="A191" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C191" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D191" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E191" t="s">
         <v>22</v>
@@ -9878,10 +9879,10 @@
         <v>69</v>
       </c>
       <c r="L191" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M191" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="N191" t="s">
         <v>100</v>
@@ -9897,7 +9898,7 @@
     <row r="192" spans="1:17">
       <c r="A192" t="s"/>
       <c r="B192" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C192" t="s"/>
       <c r="D192" t="s"/>
@@ -9920,7 +9921,7 @@
     <row r="193" spans="1:17">
       <c r="A193" t="s"/>
       <c r="B193" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C193" t="s"/>
       <c r="D193" t="s"/>
@@ -9942,13 +9943,13 @@
     </row>
     <row r="194" spans="1:17">
       <c r="A194" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B194" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C194" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D194" t="s">
         <v>21</v>
@@ -9969,7 +9970,7 @@
         <v>24</v>
       </c>
       <c r="J194" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K194" t="s">
         <v>26</v>
@@ -9994,7 +9995,7 @@
     <row r="195" spans="1:17">
       <c r="A195" t="s"/>
       <c r="B195" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C195" t="s"/>
       <c r="D195" t="s"/>
@@ -10017,10 +10018,10 @@
     <row r="196" spans="1:17">
       <c r="A196" t="s"/>
       <c r="B196" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C196" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D196" t="s">
         <v>21</v>
@@ -10041,16 +10042,16 @@
         <v>130</v>
       </c>
       <c r="J196" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="K196" t="s">
         <v>26</v>
       </c>
       <c r="L196" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="M196" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="N196" t="s">
         <v>141</v>
@@ -10068,10 +10069,10 @@
     <row r="197" spans="1:17">
       <c r="A197" t="s"/>
       <c r="B197" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C197" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D197" t="s">
         <v>157</v>
@@ -10098,10 +10099,10 @@
         <v>26</v>
       </c>
       <c r="L197" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M197" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N197" t="s">
         <v>86</v>
@@ -10110,7 +10111,7 @@
         <v>87</v>
       </c>
       <c r="P197" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q197" t="n">
         <v>3</v>
@@ -10119,7 +10120,7 @@
     <row r="198" spans="1:17">
       <c r="A198" t="s"/>
       <c r="B198" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C198" t="s"/>
       <c r="D198" t="s"/>
@@ -10141,10 +10142,10 @@
     </row>
     <row r="199" spans="1:17">
       <c r="A199" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B199" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C199" t="s"/>
       <c r="D199" t="s"/>
@@ -10171,7 +10172,7 @@
         <v>175</v>
       </c>
       <c r="D200" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E200" t="s">
         <v>22</v>
@@ -10183,7 +10184,7 @@
         <v>84</v>
       </c>
       <c r="H200" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I200" t="s">
         <v>24</v>
@@ -10196,10 +10197,10 @@
       </c>
       <c r="L200" t="s"/>
       <c r="M200" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="N200" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="O200" t="s">
         <v>39</v>
@@ -10211,13 +10212,13 @@
     </row>
     <row r="201" spans="1:17">
       <c r="A201" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B201" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C201" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D201" t="s">
         <v>44</v>
@@ -10229,7 +10230,7 @@
         <v>44</v>
       </c>
       <c r="G201" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H201" t="s">
         <v>46</v>
@@ -10238,7 +10239,7 @@
         <v>47</v>
       </c>
       <c r="J201" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="K201" t="s">
         <v>66</v>
@@ -10263,7 +10264,7 @@
     <row r="202" spans="1:17">
       <c r="A202" t="s"/>
       <c r="B202" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C202" t="s"/>
       <c r="D202" t="s"/>
@@ -10286,7 +10287,7 @@
     <row r="203" spans="1:17">
       <c r="A203" t="s"/>
       <c r="B203" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C203" t="s"/>
       <c r="D203" t="s">
@@ -10299,7 +10300,7 @@
         <v>21</v>
       </c>
       <c r="G203" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H203" t="s">
         <v>57</v>
@@ -10315,7 +10316,7 @@
       </c>
       <c r="L203" t="s"/>
       <c r="M203" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="N203" t="s">
         <v>100</v>
@@ -10333,7 +10334,7 @@
     <row r="204" spans="1:17">
       <c r="A204" t="s"/>
       <c r="B204" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C204" t="s"/>
       <c r="D204" t="s"/>
@@ -10356,10 +10357,10 @@
     <row r="205" spans="1:17">
       <c r="A205" t="s"/>
       <c r="B205" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C205" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="D205" t="s">
         <v>21</v>
@@ -10380,23 +10381,23 @@
         <v>181</v>
       </c>
       <c r="J205" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K205" t="s">
         <v>69</v>
       </c>
       <c r="L205" t="s"/>
       <c r="M205" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="N205" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="O205" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="P205" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q205" t="n">
         <v>3</v>
@@ -10405,7 +10406,7 @@
     <row r="206" spans="1:17">
       <c r="A206" t="s"/>
       <c r="B206" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C206" t="s"/>
       <c r="D206" t="s"/>
@@ -10428,10 +10429,10 @@
     <row r="207" spans="1:17">
       <c r="A207" t="s"/>
       <c r="B207" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C207" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D207" t="s">
         <v>157</v>
@@ -10449,7 +10450,7 @@
         <v>66</v>
       </c>
       <c r="I207" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J207" t="s">
         <v>109</v>
@@ -10459,10 +10460,10 @@
       </c>
       <c r="L207" t="s"/>
       <c r="M207" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="N207" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="O207" t="s">
         <v>39</v>
@@ -10477,7 +10478,7 @@
     <row r="208" spans="1:17">
       <c r="A208" t="s"/>
       <c r="B208" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C208" t="s"/>
       <c r="D208" t="s"/>
@@ -10500,7 +10501,7 @@
     <row r="209" spans="1:17">
       <c r="A209" t="s"/>
       <c r="B209" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C209" t="s"/>
       <c r="D209" t="s"/>
@@ -10523,10 +10524,10 @@
     <row r="210" spans="1:17">
       <c r="A210" t="s"/>
       <c r="B210" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C210" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D210" t="s">
         <v>44</v>
@@ -10538,10 +10539,10 @@
         <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="H210" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I210" t="s">
         <v>164</v>
@@ -10554,7 +10555,7 @@
       </c>
       <c r="L210" t="s"/>
       <c r="M210" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="N210" t="s">
         <v>38</v>
@@ -10571,10 +10572,10 @@
     </row>
     <row r="211" spans="1:17">
       <c r="A211" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B211" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C211" t="s"/>
       <c r="D211" t="s"/>
@@ -10597,10 +10598,10 @@
     <row r="212" spans="1:17">
       <c r="A212" t="s"/>
       <c r="B212" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C212" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D212" t="s">
         <v>157</v>
@@ -10628,16 +10629,16 @@
       </c>
       <c r="L212" t="s"/>
       <c r="M212" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N212" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O212" t="s">
         <v>39</v>
       </c>
       <c r="P212" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="Q212" t="n">
         <v>3</v>
@@ -10646,7 +10647,7 @@
     <row r="213" spans="1:17">
       <c r="A213" t="s"/>
       <c r="B213" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C213" t="s"/>
       <c r="D213" t="s"/>
@@ -10669,10 +10670,10 @@
     <row r="214" spans="1:17">
       <c r="A214" t="s"/>
       <c r="B214" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C214" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D214" t="s">
         <v>21</v>
@@ -10690,7 +10691,7 @@
         <v>23</v>
       </c>
       <c r="I214" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="J214" t="s">
         <v>44</v>
@@ -10699,13 +10700,13 @@
         <v>69</v>
       </c>
       <c r="L214" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="M214" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N214" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O214" t="s">
         <v>39</v>
@@ -10719,13 +10720,13 @@
     </row>
     <row r="215" spans="1:17">
       <c r="A215" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B215" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C215" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D215" t="s">
         <v>157</v>
@@ -10737,7 +10738,7 @@
         <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H215" t="s">
         <v>23</v>
@@ -10752,10 +10753,10 @@
         <v>69</v>
       </c>
       <c r="L215" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="M215" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="N215" t="s">
         <v>71</v>
@@ -10772,13 +10773,13 @@
     </row>
     <row r="216" spans="1:17">
       <c r="A216" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B216" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C216" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D216" t="s">
         <v>21</v>
@@ -10790,13 +10791,13 @@
         <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="H216" t="s">
         <v>23</v>
       </c>
       <c r="I216" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J216" t="s">
         <v>65</v>
@@ -10805,10 +10806,10 @@
         <v>69</v>
       </c>
       <c r="L216" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="M216" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="N216" t="s">
         <v>71</v>
@@ -10823,10 +10824,10 @@
     </row>
     <row r="217" spans="1:17">
       <c r="A217" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B217" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C217" t="s"/>
       <c r="D217" t="s"/>
@@ -10849,10 +10850,10 @@
     <row r="218" spans="1:17">
       <c r="A218" t="s"/>
       <c r="B218" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C218" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D218" t="s">
         <v>21</v>
@@ -10897,13 +10898,13 @@
     </row>
     <row r="219" spans="1:17">
       <c r="A219" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B219" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C219" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D219" t="s">
         <v>21</v>
@@ -10930,10 +10931,10 @@
         <v>26</v>
       </c>
       <c r="L219" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M219" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N219" t="s">
         <v>100</v>
@@ -10950,10 +10951,10 @@
     </row>
     <row r="220" spans="1:17">
       <c r="A220" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B220" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C220" t="s"/>
       <c r="D220" t="s">
@@ -10981,13 +10982,13 @@
         <v>26</v>
       </c>
       <c r="L220" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M220" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N220" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O220" t="s">
         <v>39</v>
@@ -10999,10 +11000,10 @@
     </row>
     <row r="221" spans="1:17">
       <c r="A221" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B221" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C221" t="s"/>
       <c r="D221" t="s"/>
@@ -11025,7 +11026,7 @@
     <row r="222" spans="1:17">
       <c r="A222" t="s"/>
       <c r="B222" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C222" t="s"/>
       <c r="D222" t="s"/>
@@ -11047,13 +11048,13 @@
     </row>
     <row r="223" spans="1:17">
       <c r="A223" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B223" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C223" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D223" t="s">
         <v>21</v>
@@ -11068,7 +11069,7 @@
         <v>84</v>
       </c>
       <c r="H223" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I223" t="s">
         <v>97</v>
@@ -11080,16 +11081,16 @@
         <v>26</v>
       </c>
       <c r="L223" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="M223" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N223" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="O223" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P223" t="s">
         <v>88</v>
@@ -11101,10 +11102,10 @@
     <row r="224" spans="1:17">
       <c r="A224" t="s"/>
       <c r="B224" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C224" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D224" t="s">
         <v>21</v>
@@ -11131,13 +11132,13 @@
         <v>26</v>
       </c>
       <c r="L224" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M224" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N224" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O224" t="s">
         <v>39</v>
@@ -11172,13 +11173,13 @@
     </row>
     <row r="226" spans="1:17">
       <c r="A226" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B226" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C226" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D226" t="s">
         <v>21</v>
@@ -11209,7 +11210,7 @@
         <v>27</v>
       </c>
       <c r="N226" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="O226" t="s">
         <v>39</v>
@@ -11224,7 +11225,7 @@
     <row r="227" spans="1:17">
       <c r="A227" t="s"/>
       <c r="B227" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C227" t="s"/>
       <c r="D227" t="s"/>
@@ -11268,7 +11269,7 @@
     <row r="229" spans="1:17">
       <c r="A229" t="s"/>
       <c r="B229" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C229" t="s"/>
       <c r="D229" t="s"/>
@@ -11291,10 +11292,10 @@
     <row r="230" spans="1:17">
       <c r="A230" t="s"/>
       <c r="B230" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C230" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D230" t="s">
         <v>21</v>
@@ -11312,22 +11313,22 @@
         <v>96</v>
       </c>
       <c r="I230" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J230" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K230" t="s">
         <v>26</v>
       </c>
       <c r="L230" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="M230" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="N230" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O230" t="s">
         <v>39</v>
@@ -11341,13 +11342,13 @@
     </row>
     <row r="231" spans="1:17">
       <c r="A231" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B231" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C231" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D231" t="s">
         <v>21</v>
@@ -11365,7 +11366,7 @@
         <v>57</v>
       </c>
       <c r="I231" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J231" t="s">
         <v>88</v>
@@ -11374,10 +11375,10 @@
         <v>26</v>
       </c>
       <c r="L231" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M231" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="N231" t="s">
         <v>59</v>
@@ -11395,7 +11396,7 @@
     <row r="232" spans="1:17">
       <c r="A232" t="s"/>
       <c r="B232" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C232" t="s"/>
       <c r="D232" t="s"/>
@@ -11418,10 +11419,10 @@
     <row r="233" spans="1:17">
       <c r="A233" t="s"/>
       <c r="B233" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C233" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D233" t="s">
         <v>21</v>
@@ -11448,10 +11449,10 @@
         <v>26</v>
       </c>
       <c r="L233" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M233" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N233" t="s">
         <v>59</v>
@@ -11469,7 +11470,7 @@
     <row r="234" spans="1:17">
       <c r="A234" t="s"/>
       <c r="B234" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C234" t="s"/>
       <c r="D234" t="s"/>
@@ -11491,10 +11492,10 @@
     </row>
     <row r="235" spans="1:17">
       <c r="A235" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B235" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C235" t="s"/>
       <c r="D235" t="s">
@@ -11513,7 +11514,7 @@
         <v>96</v>
       </c>
       <c r="I235" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J235" t="s">
         <v>145</v>
@@ -11522,13 +11523,13 @@
         <v>26</v>
       </c>
       <c r="L235" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="M235" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="N235" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="O235" t="s">
         <v>39</v>
@@ -11542,16 +11543,16 @@
     </row>
     <row r="236" spans="1:17">
       <c r="A236" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B236" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C236" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D236" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E236" t="s">
         <v>22</v>
@@ -11563,22 +11564,22 @@
         <v>94</v>
       </c>
       <c r="H236" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I236" t="s">
         <v>24</v>
       </c>
       <c r="J236" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K236" t="s">
         <v>26</v>
       </c>
       <c r="L236" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M236" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="N236" t="s">
         <v>100</v>
@@ -11595,10 +11596,10 @@
     </row>
     <row r="237" spans="1:17">
       <c r="A237" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B237" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C237" t="s"/>
       <c r="D237" t="s"/>
@@ -11621,10 +11622,10 @@
     <row r="238" spans="1:17">
       <c r="A238" t="s"/>
       <c r="B238" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C238" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D238" t="s">
         <v>21</v>
@@ -11642,7 +11643,7 @@
         <v>57</v>
       </c>
       <c r="I238" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J238" t="s">
         <v>44</v>
@@ -11667,10 +11668,10 @@
     </row>
     <row r="239" spans="1:17">
       <c r="A239" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B239" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C239" t="s"/>
       <c r="D239" t="s"/>
@@ -11693,7 +11694,7 @@
     <row r="240" spans="1:17">
       <c r="A240" t="s"/>
       <c r="B240" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C240" t="s"/>
       <c r="D240" t="s"/>
@@ -11715,10 +11716,10 @@
     </row>
     <row r="241" spans="1:17">
       <c r="A241" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B241" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C241" t="s"/>
       <c r="D241" t="s"/>
@@ -11740,10 +11741,10 @@
     </row>
     <row r="242" spans="1:17">
       <c r="A242" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B242" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C242" t="s">
         <v>175</v>
@@ -11790,7 +11791,7 @@
     <row r="243" spans="1:17">
       <c r="A243" t="s"/>
       <c r="B243" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C243" t="s"/>
       <c r="D243" t="s"/>
@@ -11813,10 +11814,10 @@
     <row r="244" spans="1:17">
       <c r="A244" t="s"/>
       <c r="B244" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C244" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D244" t="s">
         <v>21</v>
@@ -11844,10 +11845,10 @@
       </c>
       <c r="L244" t="s"/>
       <c r="M244" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="N244" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O244" t="s">
         <v>39</v>
@@ -11859,10 +11860,10 @@
     </row>
     <row r="245" spans="1:17">
       <c r="A245" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B245" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C245" t="s"/>
       <c r="D245" t="s"/>
@@ -11885,10 +11886,10 @@
     <row r="246" spans="1:17">
       <c r="A246" t="s"/>
       <c r="B246" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C246" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="D246" t="s">
         <v>21</v>
@@ -11906,18 +11907,18 @@
         <v>57</v>
       </c>
       <c r="I246" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J246" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="K246" t="s"/>
       <c r="L246" t="s"/>
       <c r="M246" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="N246" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O246" t="s">
         <v>39</v>
@@ -11932,7 +11933,7 @@
     <row r="247" spans="1:17">
       <c r="A247" t="s"/>
       <c r="B247" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C247" t="s"/>
       <c r="D247" t="s"/>
@@ -11955,7 +11956,7 @@
     <row r="248" spans="1:17">
       <c r="A248" t="s"/>
       <c r="B248" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C248" t="s"/>
       <c r="D248" t="s"/>
@@ -11978,10 +11979,10 @@
     <row r="249" spans="1:17">
       <c r="A249" t="s"/>
       <c r="B249" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C249" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D249" t="s">
         <v>21</v>
@@ -12002,17 +12003,17 @@
         <v>181</v>
       </c>
       <c r="J249" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="K249" t="s">
         <v>26</v>
       </c>
       <c r="L249" t="s"/>
       <c r="M249" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N249" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O249" t="s">
         <v>39</v>
@@ -12027,7 +12028,7 @@
     <row r="250" spans="1:17">
       <c r="A250" t="s"/>
       <c r="B250" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C250" t="s"/>
       <c r="D250" t="s"/>
@@ -12050,7 +12051,7 @@
     <row r="251" spans="1:17">
       <c r="A251" t="s"/>
       <c r="B251" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C251" t="s"/>
       <c r="D251" t="s"/>
@@ -12073,7 +12074,7 @@
     <row r="252" spans="1:17">
       <c r="A252" t="s"/>
       <c r="B252" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C252" t="s"/>
       <c r="D252" t="s"/>
@@ -12096,7 +12097,7 @@
     <row r="253" spans="1:17">
       <c r="A253" t="s"/>
       <c r="B253" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C253" t="s"/>
       <c r="D253" t="s"/>
@@ -12118,10 +12119,10 @@
     </row>
     <row r="254" spans="1:17">
       <c r="A254" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B254" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C254" t="s"/>
       <c r="D254" t="s"/>
@@ -12135,9 +12136,7 @@
       <c r="L254" t="s"/>
       <c r="M254" t="s"/>
       <c r="N254" t="s"/>
-      <c r="O254" t="s">
-        <v>447</v>
-      </c>
+      <c r="O254" t="s"/>
       <c r="P254" t="s"/>
       <c r="Q254" t="n">
         <v>3</v>
@@ -12146,7 +12145,7 @@
     <row r="255" spans="1:17">
       <c r="A255" t="s"/>
       <c r="B255" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C255" t="s"/>
       <c r="D255" t="s">
@@ -12156,25 +12155,27 @@
         <v>130</v>
       </c>
       <c r="F255" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G255" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="H255" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I255" t="s"/>
       <c r="J255" t="s"/>
       <c r="K255" t="s"/>
       <c r="L255" t="s"/>
       <c r="M255" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="N255" t="s">
-        <v>656</v>
-      </c>
-      <c r="O255" t="s"/>
+        <v>649</v>
+      </c>
+      <c r="O255" t="s">
+        <v>441</v>
+      </c>
       <c r="P255" t="s"/>
       <c r="Q255" t="n">
         <v>3</v>
@@ -12182,10 +12183,10 @@
     </row>
     <row r="256" spans="1:17">
       <c r="A256" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B256" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C256" t="s"/>
       <c r="D256" t="s"/>
@@ -12208,10 +12209,10 @@
     <row r="257" spans="1:17">
       <c r="A257" t="s"/>
       <c r="B257" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C257" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D257" t="s">
         <v>157</v>
@@ -12223,7 +12224,7 @@
         <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="H257" t="s">
         <v>57</v>
@@ -12257,7 +12258,7 @@
     <row r="258" spans="1:17">
       <c r="A258" t="s"/>
       <c r="B258" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C258" t="s"/>
       <c r="D258" t="s"/>
@@ -12280,7 +12281,7 @@
     <row r="259" spans="1:17">
       <c r="A259" t="s"/>
       <c r="B259" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C259" t="s"/>
       <c r="D259" t="s"/>
@@ -12303,7 +12304,7 @@
     <row r="260" spans="1:17">
       <c r="A260" t="s"/>
       <c r="B260" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C260" t="s"/>
       <c r="D260" t="s"/>
@@ -12326,7 +12327,7 @@
     <row r="261" spans="1:17">
       <c r="A261" t="s"/>
       <c r="B261" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C261" t="s"/>
       <c r="D261" t="s"/>
@@ -12349,7 +12350,7 @@
     <row r="262" spans="1:17">
       <c r="A262" t="s"/>
       <c r="B262" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="C262" t="s"/>
       <c r="D262" t="s"/>
@@ -12372,7 +12373,7 @@
     <row r="263" spans="1:17">
       <c r="A263" t="s"/>
       <c r="B263" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="C263" t="s"/>
       <c r="D263" t="s"/>
@@ -12395,7 +12396,7 @@
     <row r="264" spans="1:17">
       <c r="A264" t="s"/>
       <c r="B264" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C264" t="s"/>
       <c r="D264" t="s"/>
@@ -12418,7 +12419,7 @@
     <row r="265" spans="1:17">
       <c r="A265" t="s"/>
       <c r="B265" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="C265" t="s"/>
       <c r="D265" t="s"/>
@@ -12441,10 +12442,10 @@
     <row r="266" spans="1:17">
       <c r="A266" t="s"/>
       <c r="B266" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C266" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D266" t="s">
         <v>21</v>
@@ -12456,7 +12457,7 @@
         <v>21</v>
       </c>
       <c r="G266" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H266" t="s">
         <v>66</v>
@@ -12472,10 +12473,10 @@
       </c>
       <c r="L266" t="s"/>
       <c r="M266" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="N266" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="O266" t="s">
         <v>39</v>
@@ -12490,10 +12491,10 @@
     <row r="267" spans="1:17">
       <c r="A267" t="s"/>
       <c r="B267" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C267" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="D267" t="s">
         <v>21</v>
@@ -12521,7 +12522,7 @@
       </c>
       <c r="L267" t="s"/>
       <c r="M267" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="N267" t="s">
         <v>100</v>
@@ -12538,13 +12539,13 @@
     </row>
     <row r="268" spans="1:17">
       <c r="A268" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B268" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C268" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D268" t="s">
         <v>21</v>
@@ -12559,20 +12560,20 @@
         <v>135</v>
       </c>
       <c r="H268" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="I268" t="s">
         <v>130</v>
       </c>
       <c r="J268" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="K268" t="s">
         <v>26</v>
       </c>
       <c r="L268" t="s"/>
       <c r="M268" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="N268" t="s">
         <v>100</v>
@@ -12581,7 +12582,7 @@
         <v>39</v>
       </c>
       <c r="P268" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q268" t="n">
         <v>4</v>
@@ -12589,13 +12590,13 @@
     </row>
     <row r="269" spans="1:17">
       <c r="A269" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B269" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C269" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D269" t="s">
         <v>21</v>
@@ -12616,23 +12617,23 @@
         <v>24</v>
       </c>
       <c r="J269" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K269" t="s">
         <v>26</v>
       </c>
       <c r="L269" t="s"/>
       <c r="M269" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N269" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O269" t="s">
         <v>39</v>
       </c>
       <c r="P269" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q269" t="n">
         <v>4</v>
@@ -12641,10 +12642,10 @@
     <row r="270" spans="1:17">
       <c r="A270" t="s"/>
       <c r="B270" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C270" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D270" t="s">
         <v>21</v>
@@ -12672,16 +12673,16 @@
       </c>
       <c r="L270" t="s"/>
       <c r="M270" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N270" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O270" t="s">
         <v>39</v>
       </c>
       <c r="P270" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q270" t="n">
         <v>4</v>
@@ -12689,10 +12690,10 @@
     </row>
     <row r="271" spans="1:17">
       <c r="A271" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B271" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C271" t="s"/>
       <c r="D271" t="s"/>
@@ -12715,10 +12716,10 @@
     <row r="272" spans="1:17">
       <c r="A272" t="s"/>
       <c r="B272" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C272" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D272" t="s">
         <v>21</v>
@@ -12746,10 +12747,10 @@
       </c>
       <c r="L272" t="s"/>
       <c r="M272" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="N272" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O272" t="s">
         <v>39</v>
@@ -12764,7 +12765,7 @@
     <row r="273" spans="1:17">
       <c r="A273" t="s"/>
       <c r="B273" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C273" t="s"/>
       <c r="D273" t="s"/>
@@ -12787,7 +12788,7 @@
     <row r="274" spans="1:17">
       <c r="A274" t="s"/>
       <c r="B274" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C274" t="s"/>
       <c r="D274" t="s"/>
@@ -12809,13 +12810,13 @@
     </row>
     <row r="275" spans="1:17">
       <c r="A275" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B275" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C275" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D275" t="s">
         <v>21</v>
@@ -12860,10 +12861,10 @@
     </row>
     <row r="276" spans="1:17">
       <c r="A276" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B276" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C276" t="s"/>
       <c r="D276" t="s"/>
@@ -12886,10 +12887,10 @@
     <row r="277" spans="1:17">
       <c r="A277" t="s"/>
       <c r="B277" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C277" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D277" t="s">
         <v>21</v>
@@ -12935,7 +12936,7 @@
     <row r="278" spans="1:17">
       <c r="A278" t="s"/>
       <c r="B278" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C278" t="s"/>
       <c r="D278" t="s"/>
@@ -12958,10 +12959,10 @@
     <row r="279" spans="1:17">
       <c r="A279" t="s"/>
       <c r="B279" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C279" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D279" t="s">
         <v>21</v>
@@ -13006,10 +13007,10 @@
     </row>
     <row r="280" spans="1:17">
       <c r="A280" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B280" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C280" t="s"/>
       <c r="D280" t="s"/>
@@ -13032,7 +13033,7 @@
     <row r="281" spans="1:17">
       <c r="A281" t="s"/>
       <c r="B281" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C281" t="s"/>
       <c r="D281" t="s"/>
@@ -13055,7 +13056,7 @@
     <row r="282" spans="1:17">
       <c r="A282" t="s"/>
       <c r="B282" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C282" t="s"/>
       <c r="D282" t="s">
@@ -13071,7 +13072,7 @@
         <v>94</v>
       </c>
       <c r="H282" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I282" t="s">
         <v>97</v>
@@ -13084,16 +13085,16 @@
       </c>
       <c r="L282" t="s"/>
       <c r="M282" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="N282" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O282" t="s">
         <v>39</v>
       </c>
       <c r="P282" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q282" t="n">
         <v>4</v>
@@ -13102,7 +13103,7 @@
     <row r="283" spans="1:17">
       <c r="A283" t="s"/>
       <c r="B283" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C283" t="s"/>
       <c r="D283" t="s"/>
@@ -13124,13 +13125,13 @@
     </row>
     <row r="284" spans="1:17">
       <c r="A284" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B284" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C284" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="D284" t="s">
         <v>21</v>
@@ -13156,10 +13157,10 @@
       <c r="K284" t="s"/>
       <c r="L284" t="s"/>
       <c r="M284" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="N284" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O284" t="s">
         <v>39</v>
@@ -13194,10 +13195,10 @@
     </row>
     <row r="286" spans="1:17">
       <c r="A286" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B286" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C286" t="s"/>
       <c r="D286" t="s">
@@ -13216,20 +13217,20 @@
         <v>69</v>
       </c>
       <c r="I286" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J286" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="K286" t="s">
         <v>26</v>
       </c>
       <c r="L286" t="s"/>
       <c r="M286" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="N286" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="O286" t="s">
         <v>39</v>
@@ -13244,7 +13245,7 @@
     <row r="287" spans="1:17">
       <c r="A287" t="s"/>
       <c r="B287" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C287" t="s"/>
       <c r="D287" t="s"/>
@@ -13267,10 +13268,10 @@
     <row r="288" spans="1:17">
       <c r="A288" t="s"/>
       <c r="B288" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C288" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="D288" t="s">
         <v>21</v>
@@ -13298,10 +13299,10 @@
       </c>
       <c r="L288" t="s"/>
       <c r="M288" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="N288" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O288" t="s">
         <v>39</v>
@@ -13316,7 +13317,7 @@
     <row r="289" spans="1:17">
       <c r="A289" t="s"/>
       <c r="B289" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C289" t="s"/>
       <c r="D289" t="s"/>
@@ -13339,7 +13340,7 @@
     <row r="290" spans="1:17">
       <c r="A290" t="s"/>
       <c r="B290" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C290" t="s"/>
       <c r="D290" t="s"/>
@@ -13361,13 +13362,13 @@
     </row>
     <row r="291" spans="1:17">
       <c r="A291" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B291" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="C291" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="D291" t="s">
         <v>21</v>
@@ -13382,7 +13383,7 @@
         <v>84</v>
       </c>
       <c r="H291" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I291" t="s">
         <v>130</v>
@@ -13395,7 +13396,7 @@
       </c>
       <c r="L291" t="s"/>
       <c r="M291" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="N291" t="s">
         <v>59</v>
@@ -13413,7 +13414,7 @@
     <row r="292" spans="1:17">
       <c r="A292" t="s"/>
       <c r="B292" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C292" t="s"/>
       <c r="D292" t="s"/>
@@ -13436,7 +13437,7 @@
     <row r="293" spans="1:17">
       <c r="A293" t="s"/>
       <c r="B293" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C293" t="s"/>
       <c r="D293" t="s"/>
@@ -13458,10 +13459,10 @@
     </row>
     <row r="294" spans="1:17">
       <c r="A294" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B294" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C294" t="s"/>
       <c r="D294" t="s"/>
@@ -13484,7 +13485,7 @@
     <row r="295" spans="1:17">
       <c r="A295" t="s"/>
       <c r="B295" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C295" t="s"/>
       <c r="D295" t="s"/>
@@ -13507,7 +13508,7 @@
     <row r="296" spans="1:17">
       <c r="A296" t="s"/>
       <c r="B296" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C296" t="s"/>
       <c r="D296" t="s"/>
@@ -13529,10 +13530,10 @@
     </row>
     <row r="297" spans="1:17">
       <c r="A297" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B297" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C297" t="s"/>
       <c r="D297" t="s"/>
@@ -13555,7 +13556,7 @@
     <row r="298" spans="1:17">
       <c r="A298" t="s"/>
       <c r="B298" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C298" t="s"/>
       <c r="D298" t="s"/>
@@ -13577,10 +13578,10 @@
     </row>
     <row r="299" spans="1:17">
       <c r="A299" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B299" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C299" t="s"/>
       <c r="D299" t="s"/>
@@ -13603,10 +13604,10 @@
     <row r="300" spans="1:17">
       <c r="A300" t="s"/>
       <c r="B300" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C300" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D300" t="s">
         <v>94</v>
@@ -13651,10 +13652,10 @@
     </row>
     <row r="301" spans="1:17">
       <c r="A301" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B301" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C301" t="s"/>
       <c r="D301" t="s">
@@ -13683,10 +13684,10 @@
       </c>
       <c r="L301" t="s"/>
       <c r="M301" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="N301" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="O301" t="s">
         <v>39</v>
@@ -13701,10 +13702,10 @@
     <row r="302" spans="1:17">
       <c r="A302" t="s"/>
       <c r="B302" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C302" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D302" t="s">
         <v>21</v>
@@ -13725,17 +13726,17 @@
         <v>24</v>
       </c>
       <c r="J302" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K302" t="s">
         <v>26</v>
       </c>
       <c r="L302" t="s"/>
       <c r="M302" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="N302" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="O302" t="s">
         <v>39</v>
@@ -13749,13 +13750,13 @@
     </row>
     <row r="303" spans="1:17">
       <c r="A303" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B303" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C303" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D303" t="s">
         <v>21</v>
@@ -13767,26 +13768,26 @@
         <v>44</v>
       </c>
       <c r="G303" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H303" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="I303" t="s">
         <v>181</v>
       </c>
       <c r="J303" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K303" t="s">
         <v>26</v>
       </c>
       <c r="L303" t="s"/>
       <c r="M303" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="N303" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O303" t="s">
         <v>39</v>
@@ -13819,13 +13820,13 @@
     </row>
     <row r="305" spans="1:17">
       <c r="A305" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B305" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C305" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="D305" t="s">
         <v>21</v>
@@ -13837,13 +13838,13 @@
         <v>44</v>
       </c>
       <c r="G305" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="H305" t="s">
         <v>57</v>
       </c>
       <c r="I305" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J305" t="s">
         <v>98</v>
@@ -13853,7 +13854,7 @@
       </c>
       <c r="L305" t="s"/>
       <c r="M305" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="N305" t="s">
         <v>71</v>
@@ -13891,10 +13892,10 @@
     </row>
     <row r="307" spans="1:17">
       <c r="A307" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B307" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C307" t="s"/>
       <c r="D307" t="s"/>
@@ -13938,7 +13939,7 @@
     <row r="309" spans="1:17">
       <c r="A309" t="s"/>
       <c r="B309" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C309" t="s"/>
       <c r="D309" t="s">
@@ -13951,7 +13952,7 @@
         <v>21</v>
       </c>
       <c r="G309" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H309" t="s">
         <v>66</v>
@@ -13970,7 +13971,7 @@
         <v>78</v>
       </c>
       <c r="N309" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O309" t="s">
         <v>39</v>
@@ -13982,10 +13983,10 @@
     </row>
     <row r="310" spans="1:17">
       <c r="A310" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B310" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C310" t="s"/>
       <c r="D310" t="s"/>
@@ -14008,10 +14009,10 @@
     <row r="311" spans="1:17">
       <c r="A311" t="s"/>
       <c r="B311" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C311" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D311" t="s">
         <v>21</v>
@@ -14039,16 +14040,16 @@
       </c>
       <c r="L311" t="s"/>
       <c r="M311" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="N311" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O311" t="s">
         <v>39</v>
       </c>
       <c r="P311" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q311" t="n">
         <v>4</v>
@@ -14056,10 +14057,10 @@
     </row>
     <row r="312" spans="1:17">
       <c r="A312" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B312" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C312" t="s"/>
       <c r="D312" t="s"/>
@@ -14081,13 +14082,13 @@
     </row>
     <row r="313" spans="1:17">
       <c r="A313" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B313" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C313" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D313" t="s">
         <v>21</v>
@@ -14108,7 +14109,7 @@
         <v>24</v>
       </c>
       <c r="J313" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K313" t="s">
         <v>69</v>
@@ -14133,7 +14134,7 @@
     <row r="314" spans="1:17">
       <c r="A314" t="s"/>
       <c r="B314" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C314" t="s"/>
       <c r="D314" t="s"/>
@@ -14155,13 +14156,13 @@
     </row>
     <row r="315" spans="1:17">
       <c r="A315" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B315" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C315" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D315" t="s">
         <v>21</v>
@@ -14176,7 +14177,7 @@
         <v>84</v>
       </c>
       <c r="H315" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I315" t="s">
         <v>97</v>
@@ -14189,7 +14190,7 @@
       </c>
       <c r="L315" t="s"/>
       <c r="M315" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N315" t="s">
         <v>28</v>
@@ -14198,7 +14199,7 @@
         <v>39</v>
       </c>
       <c r="P315" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q315" t="n">
         <v>4</v>
@@ -14207,7 +14208,7 @@
     <row r="316" spans="1:17">
       <c r="A316" t="s"/>
       <c r="B316" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C316" t="s"/>
       <c r="D316" t="s"/>
@@ -14232,7 +14233,7 @@
         <v>190</v>
       </c>
       <c r="B317" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C317" t="s"/>
       <c r="D317" t="s">
@@ -14261,13 +14262,13 @@
       </c>
       <c r="L317" t="s"/>
       <c r="M317" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="N317" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O317" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="P317" t="s">
         <v>36</v>
@@ -14278,10 +14279,10 @@
     </row>
     <row r="318" spans="1:17">
       <c r="A318" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B318" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C318" t="s"/>
       <c r="D318" t="s"/>
@@ -14304,7 +14305,7 @@
     <row r="319" spans="1:17">
       <c r="A319" t="s"/>
       <c r="B319" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C319" t="s"/>
       <c r="D319" t="s"/>
@@ -14326,10 +14327,10 @@
     </row>
     <row r="320" spans="1:17">
       <c r="A320" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B320" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C320" t="s"/>
       <c r="D320" t="s"/>
@@ -14352,10 +14353,10 @@
     <row r="321" spans="1:17">
       <c r="A321" t="s"/>
       <c r="B321" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C321" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="D321" t="s">
         <v>21</v>
@@ -14367,13 +14368,13 @@
         <v>21</v>
       </c>
       <c r="G321" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H321" t="s">
         <v>57</v>
       </c>
       <c r="I321" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J321" t="s">
         <v>98</v>
@@ -14383,7 +14384,7 @@
       </c>
       <c r="L321" t="s"/>
       <c r="M321" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="N321" t="s">
         <v>86</v>
@@ -14400,10 +14401,10 @@
     </row>
     <row r="322" spans="1:17">
       <c r="A322" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B322" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C322" t="s"/>
       <c r="D322" t="s"/>
@@ -14426,7 +14427,7 @@
     <row r="323" spans="1:17">
       <c r="A323" t="s"/>
       <c r="B323" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C323" t="s"/>
       <c r="D323" t="s"/>
@@ -14448,10 +14449,10 @@
     </row>
     <row r="324" spans="1:17">
       <c r="A324" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B324" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C324" t="s"/>
       <c r="D324" t="s"/>
@@ -14474,10 +14475,10 @@
     <row r="325" spans="1:17">
       <c r="A325" t="s"/>
       <c r="B325" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C325" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="D325" t="s">
         <v>94</v>
@@ -14492,7 +14493,7 @@
         <v>135</v>
       </c>
       <c r="H325" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I325" t="s">
         <v>24</v>
@@ -14520,13 +14521,13 @@
     </row>
     <row r="326" spans="1:17">
       <c r="A326" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B326" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C326" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="D326" t="s">
         <v>21</v>
@@ -14541,7 +14542,7 @@
         <v>84</v>
       </c>
       <c r="H326" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I326" t="s">
         <v>24</v>
@@ -14572,7 +14573,7 @@
     <row r="327" spans="1:17">
       <c r="A327" t="s"/>
       <c r="B327" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C327" t="s"/>
       <c r="D327" t="s"/>
@@ -14595,7 +14596,7 @@
     <row r="328" spans="1:17">
       <c r="A328" t="s"/>
       <c r="B328" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C328" t="s"/>
       <c r="D328" t="s"/>
@@ -14618,7 +14619,7 @@
     <row r="329" spans="1:17">
       <c r="A329" t="s"/>
       <c r="B329" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C329" t="s"/>
       <c r="D329" t="s">
@@ -14634,7 +14635,7 @@
         <v>84</v>
       </c>
       <c r="H329" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I329" t="s">
         <v>24</v>
@@ -14646,13 +14647,13 @@
         <v>26</v>
       </c>
       <c r="L329" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="M329" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="N329" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="O329" t="s">
         <v>39</v>
@@ -14667,10 +14668,10 @@
     <row r="330" spans="1:17">
       <c r="A330" t="s"/>
       <c r="B330" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C330" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D330" t="s">
         <v>21</v>
@@ -14685,7 +14686,7 @@
         <v>84</v>
       </c>
       <c r="H330" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I330" t="s">
         <v>24</v>
@@ -14707,7 +14708,7 @@
         <v>39</v>
       </c>
       <c r="P330" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q330" t="n">
         <v>4</v>
@@ -14715,10 +14716,10 @@
     </row>
     <row r="331" spans="1:17">
       <c r="A331" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B331" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C331" t="s"/>
       <c r="D331" t="s">
@@ -14746,13 +14747,13 @@
         <v>26</v>
       </c>
       <c r="L331" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M331" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="N331" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="O331" t="s">
         <v>87</v>
@@ -14767,7 +14768,7 @@
     <row r="332" spans="1:17">
       <c r="A332" t="s"/>
       <c r="B332" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C332" t="s"/>
       <c r="D332" t="s">
@@ -14796,10 +14797,10 @@
       </c>
       <c r="L332" t="s"/>
       <c r="M332" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="N332" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O332" t="s">
         <v>39</v>
@@ -14813,10 +14814,10 @@
     </row>
     <row r="333" spans="1:17">
       <c r="A333" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B333" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C333" t="s"/>
       <c r="D333" t="s"/>
@@ -14839,10 +14840,10 @@
     <row r="334" spans="1:17">
       <c r="A334" t="s"/>
       <c r="B334" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C334" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="D334" t="s">
         <v>21</v>
@@ -14854,7 +14855,7 @@
         <v>21</v>
       </c>
       <c r="G334" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H334" t="s">
         <v>96</v>
@@ -14870,10 +14871,10 @@
       </c>
       <c r="L334" t="s"/>
       <c r="M334" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N334" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O334" t="s">
         <v>39</v>
@@ -14886,25 +14887,25 @@
     <row r="335" spans="1:17">
       <c r="A335" t="s"/>
       <c r="B335" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C335" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D335" t="s">
         <v>21</v>
       </c>
       <c r="E335" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="F335" t="s">
         <v>21</v>
       </c>
       <c r="G335" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H335" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I335" t="s">
         <v>114</v>
@@ -14916,10 +14917,10 @@
         <v>26</v>
       </c>
       <c r="L335" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M335" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="N335" t="s">
         <v>100</v>
@@ -14936,13 +14937,13 @@
     </row>
     <row r="336" spans="1:17">
       <c r="A336" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B336" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C336" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D336" t="s">
         <v>94</v>
@@ -14970,10 +14971,10 @@
       </c>
       <c r="L336" t="s"/>
       <c r="M336" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N336" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O336" t="s"/>
       <c r="P336" t="s">
@@ -14988,7 +14989,7 @@
         <v>169</v>
       </c>
       <c r="B337" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C337" t="s"/>
       <c r="D337" t="s"/>
@@ -15011,10 +15012,10 @@
     <row r="338" spans="1:17">
       <c r="A338" t="s"/>
       <c r="B338" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="C338" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D338" t="s">
         <v>21</v>
@@ -15060,7 +15061,7 @@
     <row r="339" spans="1:17">
       <c r="A339" t="s"/>
       <c r="B339" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C339" t="s"/>
       <c r="D339" t="s"/>
@@ -15083,10 +15084,10 @@
     <row r="340" spans="1:17">
       <c r="A340" t="s"/>
       <c r="B340" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C340" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D340" t="s">
         <v>21</v>
@@ -15131,13 +15132,13 @@
     </row>
     <row r="341" spans="1:17">
       <c r="A341" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B341" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C341" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D341" t="s">
         <v>21</v>
@@ -15158,7 +15159,7 @@
         <v>24</v>
       </c>
       <c r="J341" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K341" t="s">
         <v>26</v>
@@ -15174,7 +15175,7 @@
         <v>39</v>
       </c>
       <c r="P341" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q341" t="n">
         <v>4</v>
@@ -15183,10 +15184,10 @@
     <row r="342" spans="1:17">
       <c r="A342" t="s"/>
       <c r="B342" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C342" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D342" t="s">
         <v>21</v>
@@ -15207,7 +15208,7 @@
         <v>24</v>
       </c>
       <c r="J342" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K342" t="s">
         <v>26</v>
@@ -15231,13 +15232,13 @@
     </row>
     <row r="343" spans="1:17">
       <c r="A343" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B343" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C343" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D343" t="s">
         <v>21</v>
@@ -15265,7 +15266,7 @@
       </c>
       <c r="L343" t="s"/>
       <c r="M343" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="N343" t="s">
         <v>86</v>
@@ -15282,10 +15283,10 @@
     </row>
     <row r="344" spans="1:17">
       <c r="A344" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B344" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C344" t="s"/>
       <c r="D344" t="s"/>
@@ -15308,7 +15309,7 @@
     <row r="345" spans="1:17">
       <c r="A345" t="s"/>
       <c r="B345" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C345" t="s"/>
       <c r="D345" t="s"/>
@@ -15330,10 +15331,10 @@
     </row>
     <row r="346" spans="1:17">
       <c r="A346" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B346" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C346" t="s"/>
       <c r="D346" t="s">
@@ -15349,7 +15350,7 @@
         <v>135</v>
       </c>
       <c r="H346" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I346" t="s">
         <v>24</v>
@@ -15362,10 +15363,10 @@
       </c>
       <c r="L346" t="s"/>
       <c r="M346" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="N346" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O346" t="s">
         <v>39</v>
@@ -15382,10 +15383,10 @@
         <v>81</v>
       </c>
       <c r="B347" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C347" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="D347" t="s">
         <v>21</v>
@@ -15397,10 +15398,10 @@
         <v>21</v>
       </c>
       <c r="G347" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="H347" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I347" t="s">
         <v>130</v>
@@ -15422,7 +15423,7 @@
         <v>39</v>
       </c>
       <c r="P347" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q347" t="n">
         <v>4</v>

--- a/examples/catalogue_30s_1/generated_output/ALA1934_RR-excerpt.pdf.xlsx
+++ b/examples/catalogue_30s_1/generated_output/ALA1934_RR-excerpt.pdf.xlsx
@@ -6360,10 +6360,10 @@
       <c r="K95" t="s">
         <v>26</v>
       </c>
-      <c r="L95" t="s">
+      <c r="L95" t="s"/>
+      <c r="M95" t="s">
         <v>27</v>
       </c>
-      <c r="M95" t="s"/>
       <c r="N95" t="s">
         <v>28</v>
       </c>
@@ -8759,10 +8759,10 @@
       <c r="K162" t="s">
         <v>66</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L162" t="s"/>
+      <c r="M162" t="s">
         <v>453</v>
       </c>
-      <c r="M162" t="s"/>
       <c r="N162" t="s">
         <v>454</v>
       </c>
@@ -8808,10 +8808,10 @@
       <c r="K163" t="s">
         <v>66</v>
       </c>
-      <c r="L163" t="s">
+      <c r="L163" t="s"/>
+      <c r="M163" t="s">
         <v>459</v>
       </c>
-      <c r="M163" t="s"/>
       <c r="N163" t="s">
         <v>108</v>
       </c>
